--- a/data/income_statement/3digits/total/071_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/071_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>071-Mining of iron ores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>071-Mining of iron ores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>667669.5965499999</v>
@@ -962,13 +868,13 @@
         <v>1244399.47984</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1056843.97069</v>
+        <v>1451187.64474</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1321430.17637</v>
+        <v>1527388.23474</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>987995.5647000001</v>
+        <v>1218984.09564</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>1200270.91677</v>
@@ -980,13 +886,18 @@
         <v>2196034.75201</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3160428.40524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3161246.30709</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4158777.224</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>607684.08819</v>
@@ -1001,13 +912,13 @@
         <v>1170215.56515</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>985777.14201</v>
+        <v>1380117.68944</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1173074.38641</v>
+        <v>1376568.87097</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>973260.6113999999</v>
+        <v>1191315.07439</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>1121924.85776</v>
@@ -1019,13 +930,18 @@
         <v>1836274.87373</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2600451.74149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2601269.64334</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2825719.806</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>53679.99288</v>
@@ -1046,7 +962,7 @@
         <v>138814.08617</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>13297.02418</v>
+        <v>15250.80717</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>48882.30477</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>526590.55461</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>1258032.029</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>6305.51548</v>
@@ -1079,31 +1000,36 @@
         <v>4406.47025</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4041.56149</v>
+        <v>4044.688110000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9541.703790000001</v>
+        <v>12005.2776</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1437.92912</v>
+        <v>12418.21408</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>29463.75424</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>34782.00525000001</v>
+        <v>34782.00525</v>
       </c>
       <c r="L8" s="48" t="n">
         <v>25420.88478</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>33386.10914000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>33386.10914</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>75025.389</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1259.30824</v>
@@ -1118,13 +1044,13 @@
         <v>55723.72833999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>30360.64368</v>
+        <v>30434.95826</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>61227.87814</v>
+        <v>61628.19396</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>32553.38106</v>
+        <v>35103.13793</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>23645.92706</v>
@@ -1133,16 +1059,21 @@
         <v>29709.94492</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>30861.95282</v>
+        <v>30861.95281999999</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>48033.16675</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>97257.367</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>427.68274</v>
@@ -1157,13 +1088,13 @@
         <v>1032.81398</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2559.00108</v>
+        <v>2560.28021</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4031.46319</v>
+        <v>4270.467269999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>16314.0691</v>
+        <v>16549.12898</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>2362.77067</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>7778.093620000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>4102.472</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>831.6255</v>
@@ -1196,13 +1132,13 @@
         <v>54690.91436</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>27776.13296</v>
+        <v>27793.63296</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>57196.39495</v>
+        <v>57357.70669</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>16077.15422</v>
+        <v>18366.65121</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>20911.98634</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>35477.43014</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>85857.833</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1235,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>25.50964</v>
+        <v>81.04509</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>0.02</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>162.15774</v>
+        <v>187.35774</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>371.1700500000001</v>
@@ -1255,17 +1196,22 @@
       <c r="M12" s="48" t="n">
         <v>4777.64299</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>7297.062</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>666410.28831</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>826561.93798</v>
+        <v>826561.9379799999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>1167377.29797</v>
@@ -1274,13 +1220,13 @@
         <v>1188675.7515</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1026483.32701</v>
+        <v>1420752.68648</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1260202.29823</v>
+        <v>1465760.04078</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>955442.1836399999</v>
+        <v>1183880.95771</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>1176624.98971</v>
@@ -1292,34 +1238,39 @@
         <v>2165172.79919</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3112395.23849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3113213.14034</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4061519.857</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>449035.5225</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>492493.4182200001</v>
+        <v>492493.41822</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>634132.3975899999</v>
+        <v>634132.3975900001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>756179.6006199999</v>
+        <v>756179.60062</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>663808.75506</v>
+        <v>957376.6456599999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>821365.49309</v>
+        <v>987566.65166</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>653291.8621700001</v>
+        <v>837285.7873900001</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>792952.9385800001</v>
@@ -1331,13 +1282,18 @@
         <v>1164854.14621</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1453224.48256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1453458.20237</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1695143.113</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>311941.02861</v>
@@ -1358,67 +1314,77 @@
         <v>756330.2967999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>620358.4372400001</v>
+        <v>638712.18165</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>593059.7472500001</v>
+        <v>593059.74725</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>755301.85467</v>
+        <v>755301.8546699999</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>977484.3722999998</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1300571.58769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1300801.70869</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1483651.214</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>63738.4168</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>74049.60273999999</v>
+        <v>74049.60274000002</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>86400.5733</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>91547.71341000001</v>
+        <v>91547.71341</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>33551.01574</v>
+        <v>93906.31805</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>39596.25986</v>
+        <v>92053.2686</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>12152.89</v>
+        <v>70429.22314</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>70985.09628</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>338883.2881000001</v>
+        <v>338883.2881</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>74272.36747</v>
+        <v>74272.36747000001</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>58734.09409000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>185757.386</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>73265.02519999999</v>
+        <v>73265.0252</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>69394.12246000001</v>
@@ -1427,34 +1393,39 @@
         <v>95809.65300999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>92297.71203</v>
+        <v>92297.71202999998</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>16860.37753</v>
+        <v>250072.96582</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>20008.8154</v>
+        <v>133752.96523</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>15507.93406</v>
+        <v>122871.78173</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>124749.03199</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>605500.97966</v>
+        <v>605500.9796600001</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>112508.77959</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>93529.58480999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>93533.18362000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>25208.165</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>91.05189</v>
@@ -1478,7 +1449,7 @@
         <v>5272.60087</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4159.06306</v>
+        <v>4159.063059999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1368.78545</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>389.21597</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>526.348</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>217374.76581</v>
@@ -1508,13 +1484,13 @@
         <v>432496.15088</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>362674.57195</v>
+        <v>463376.0408200001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>438836.8051400001</v>
+        <v>478193.38912</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>302150.32147</v>
+        <v>346595.1703199999</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>383672.05113</v>
@@ -1526,16 +1502,21 @@
         <v>1000318.65298</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1659170.75593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1659754.93797</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2366376.744</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>70887.15576000001</v>
+        <v>70887.15575999999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>100693.94802</v>
@@ -1547,13 +1528,13 @@
         <v>143753.01884</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>154972.66705</v>
+        <v>159836.52262</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>213842.93891</v>
+        <v>219125.71274</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>176403.2964</v>
+        <v>197391.92175</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>200958.88348</v>
@@ -1562,16 +1543,21 @@
         <v>299053.82082</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>332046.5227199999</v>
+        <v>332056.44986</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>433192.3007199999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>433518.1661800001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>644810.63</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>526.46077</v>
@@ -1586,31 +1572,36 @@
         <v>4339.19096</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5089.237319999999</v>
+        <v>5089.23732</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>5955.41278</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8745.077680000002</v>
+        <v>10413.47172</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7848.032639999999</v>
+        <v>7848.03264</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>5030.99746</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>6696.655090000001</v>
+        <v>6696.65509</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11760.78316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11796.64174</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9036.334999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>13755.97528</v>
@@ -1625,13 +1616,13 @@
         <v>29844.11002</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>40579.90452</v>
+        <v>41393.38812999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>81833.39303000001</v>
+        <v>82691.18283000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>49158.91832</v>
+        <v>50066.34152</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>77112.20253</v>
@@ -1645,17 +1636,22 @@
       <c r="M22" s="48" t="n">
         <v>236676.55972</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>379940.311</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>56604.71971</v>
+        <v>56604.71970999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>77994.51444</v>
+        <v>77994.51444000001</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>121831.72172</v>
@@ -1664,13 +1660,13 @@
         <v>109569.71786</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>109303.52521</v>
+        <v>113353.89717</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>126054.1331</v>
+        <v>130479.11713</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>118499.3004</v>
+        <v>136912.10851</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>115998.64831</v>
@@ -1679,16 +1675,21 @@
         <v>163793.99968</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>141836.72648</v>
+        <v>141846.65362</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>184754.95784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>185044.96472</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>255833.984</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>146487.61005</v>
@@ -1700,16 +1701,16 @@
         <v>383693.89436</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>288743.1320399999</v>
+        <v>288743.13204</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>207701.9049</v>
+        <v>303539.5181999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>224993.86623</v>
+        <v>259067.67638</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>125747.02507</v>
+        <v>149203.24857</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>182713.16765</v>
@@ -1718,16 +1719,21 @@
         <v>597786.7756899999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>668272.13026</v>
+        <v>668262.20312</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1225978.45521</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1226236.77179</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1721566.114</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>47318.66892</v>
@@ -1736,19 +1742,19 @@
         <v>71266.30266</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>85360.06997000001</v>
+        <v>85360.06997</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>78089.53238</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>64196.48364000001</v>
+        <v>70829.06165999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>82290.59570999999</v>
+        <v>91357.22655000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>81000.50691000001</v>
+        <v>106909.10896</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>114811.37564</v>
@@ -1757,16 +1763,21 @@
         <v>185350.72778</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>437677.0159699999</v>
+        <v>437677.01597</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>451133.4494400001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>452619.77827</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>692990.492</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1669.34928</v>
@@ -1781,7 +1792,7 @@
         <v>372.80899</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>13.77551</v>
+        <v>250.22173</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>840.8630899999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>16034.71434</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>53075.765</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5488.85941</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>425.909</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>27198.37999</v>
@@ -1853,19 +1874,19 @@
         <v>32752.8426</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>36856.76491000001</v>
+        <v>36856.76491</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>55171.02975</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>26615.20769</v>
+        <v>27606.68143</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>35781.90687000001</v>
+        <v>37408.54255</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>28261.25303</v>
+        <v>30273.09947</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>31515.9682</v>
@@ -1874,16 +1895,21 @@
         <v>49940.89117</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>75005.54862</v>
+        <v>75005.54861999999</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>133505.89524</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>157159.6</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>7822.299420000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2019.454</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>7921.278</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>216.1345</v>
@@ -1976,13 +2012,13 @@
         <v>33.80783</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>126.61766</v>
+        <v>126.61986</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>127.97727</v>
+        <v>128.32192</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>29.90474</v>
+        <v>175.43088</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>77.16698</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>5.43528</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>50.971</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>8373.97183</v>
@@ -2009,19 +2050,19 @@
         <v>16305.94566</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>27642.70112999999</v>
+        <v>27642.70113</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7215.837680000001</v>
+        <v>7215.83768</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>14469.2683</v>
+        <v>17758.64902</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>16564.17878</v>
+        <v>21148.25351</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>36424.90176</v>
+        <v>55863.95965999999</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>49860.82687</v>
@@ -2033,13 +2074,18 @@
         <v>204204.24545</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>93031.98832</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>94518.31715</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>207914.576</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.09912</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>56.712</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>4.53003</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2352.51991</v>
@@ -2129,22 +2185,22 @@
         <v>12304.22451</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5861.165599999999</v>
+        <v>5861.1656</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>22059.24053</v>
+        <v>24174.51567</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>24382.52784</v>
+        <v>27238.10362</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12925.49708</v>
+        <v>17237.66865</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>25426.79241</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>74576.75783000002</v>
+        <v>74576.75783</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>143912.27559</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>200657.48769</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>266385.681</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>13090.71269</v>
@@ -2168,22 +2229,22 @@
         <v>19296.61784</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8950.022509999999</v>
+        <v>8950.022509999997</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>21211.50947</v>
+        <v>21519.62667</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>35496.54538</v>
+        <v>37706.75576</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>47701.88226</v>
+        <v>52796.15519</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>40948.43537000001</v>
+        <v>40948.43537</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>82435.25602000002</v>
+        <v>82435.25602</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>255400.58527</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>149374.32689</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>282701.075</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11.04783</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>174.58486</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>92.566</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1951.88737</v>
@@ -2252,7 +2323,7 @@
         <v>2230.28045</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2680.79905</v>
+        <v>2956.60017</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>2015.49425</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>4613.287</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>251.77</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>26.54005</v>
@@ -2291,7 +2367,7 @@
         <v>1069.75426</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>12.50148</v>
+        <v>158.01324</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>16.34535</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2.726</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>10682.52025</v>
@@ -2327,16 +2408,16 @@
         <v>6625.29093</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10673.54704</v>
+        <v>10973.46422</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>15745.87517</v>
+        <v>17534.77267</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12907.38669</v>
+        <v>18001.65962</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>33399.56981</v>
+        <v>33399.56981000001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>53455.02392</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>132144.66614</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>250360.534</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>47.76542</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>56.827</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>418.71719</v>
@@ -2444,7 +2540,7 @@
         <v>1254.56176</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7224.94</v>
+        <v>7233.14002</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>17046.62542</v>
@@ -2459,19 +2555,24 @@
         <v>13202.5677</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>36520.88555</v>
+        <v>36520.88555000001</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>12394.02347</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>31936.652</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9400.39014</v>
+        <v>9400.390140000001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>6677.01956</v>
@@ -2483,16 +2584,16 @@
         <v>21852.62906</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17538.42483</v>
+        <v>17714.44198</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>31890.38778</v>
+        <v>31961.78416</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>59342.18993000001</v>
+        <v>60943.70614</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>84388.47807</v>
+        <v>84388.47807000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>106160.13283</v>
@@ -2503,11 +2604,16 @@
       <c r="M44" s="47" t="n">
         <v>163439.23314</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>141974.274</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>7340.42233</v>
@@ -2516,19 +2622,19 @@
         <v>5333.67233</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6653.65593</v>
+        <v>6653.655930000001</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>21134.78092</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16306.71733</v>
+        <v>16482.73448</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>19334.79988</v>
+        <v>19406.19626</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>39753.24192</v>
+        <v>41354.75812999999</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>30963.50315</v>
@@ -2537,16 +2643,21 @@
         <v>38781.68389</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>53656.55623</v>
+        <v>53656.55622999999</v>
       </c>
       <c r="M45" s="48" t="n">
         <v>44403.57453</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>42843.365</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2059.96781</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>119035.65861</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>99130.909</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>171315.17614</v>
@@ -2597,34 +2713,39 @@
         <v>441908.06337</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>336030.0128499999</v>
+        <v>336030.01285</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>233148.45424</v>
+        <v>335134.51121</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>239897.52878</v>
+        <v>280756.36301</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>99703.45978999999</v>
+        <v>142372.4962</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>172187.62985</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>594542.1146199999</v>
+        <v>594542.11462</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>697928.78887</v>
+        <v>697918.8617299999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1364298.34462</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1366042.99003</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1989881.257</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>16522.2229</v>
@@ -2639,13 +2760,13 @@
         <v>4218.06415</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3664.8076</v>
+        <v>5492.75564</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4340.76207</v>
+        <v>6876.70246</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2704.38972</v>
+        <v>14540.62518</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>22837.79451</v>
@@ -2659,11 +2780,16 @@
       <c r="M48" s="47" t="n">
         <v>11746.31528</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>16313.586</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2681,10 +2807,10 @@
         <v>33.98968</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>156.40753</v>
+        <v>165.76365</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>670.2114</v>
+        <v>672.4829</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>1120.14806</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1978.88539</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>5673.282</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>16522.2229</v>
@@ -2711,19 +2842,19 @@
         <v>3670.53909</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5532.74027</v>
+        <v>5532.740269999999</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>4003.75316</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3630.81792</v>
+        <v>5458.76596</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4184.35454</v>
+        <v>6710.938810000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2034.17832</v>
+        <v>13868.14228</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>21717.64645</v>
@@ -2735,13 +2866,18 @@
         <v>17020.52569</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9767.429889999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9767.429890000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>10640.304</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>8059.31869</v>
@@ -2756,13 +2892,13 @@
         <v>10047.31578</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11045.07725</v>
+        <v>11492.18954</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>31289.9847</v>
+        <v>32064.07984</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>11257.77214</v>
+        <v>25749.61714</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>47727.79832</v>
@@ -2774,13 +2910,18 @@
         <v>46843.85653</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>72200.04452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>72200.04452000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>65417.087</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>19.80966</v>
@@ -2795,13 +2936,13 @@
         <v>585.07429</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3208.08944</v>
+        <v>3208.089439999999</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>10209.23539</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7369.275189999999</v>
+        <v>20335.49643</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>24346.61302</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>25655.03587</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>41464.88</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>27.18996</v>
@@ -2834,13 +2980,13 @@
         <v>8.480270000000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7.64527</v>
+        <v>87.19135</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1315.96602</v>
+        <v>1337.80873</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1190.28894</v>
+        <v>2192.29358</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>373.05305</v>
@@ -2854,38 +3000,43 @@
       <c r="M53" s="48" t="n">
         <v>38879.44888</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>14143.144</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>8012.31907</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9001.180309999998</v>
+        <v>9001.18031</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>19100.12669</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9453.76122</v>
+        <v>9453.761219999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7829.342540000001</v>
+        <v>8196.908750000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>19764.78329</v>
+        <v>20517.03572</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2698.20801</v>
+        <v>3221.82713</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>23008.13225</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>7482.395990000001</v>
+        <v>7482.39599</v>
       </c>
       <c r="L54" s="48" t="n">
         <v>17560.32567</v>
@@ -2893,11 +3044,16 @@
       <c r="M54" s="48" t="n">
         <v>7665.55977</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>9809.063</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>179778.08035</v>
@@ -2912,13 +3068,13 @@
         <v>330200.76122</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>225768.18459</v>
+        <v>329135.07731</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>212948.30615</v>
+        <v>255568.98563</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>91150.07737</v>
+        <v>131163.50424</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>147297.62604</v>
@@ -2927,16 +3083,21 @@
         <v>594064.2845399999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>668121.45803</v>
+        <v>668111.5308899999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1303844.61538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1305589.26079</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1940777.756</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>34710.08093</v>
@@ -2945,22 +3106,22 @@
         <v>35861.16503</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>86620.58262</v>
+        <v>86620.58261999999</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>67382.27197</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>46440.59699999999</v>
+        <v>67206.21387000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>40879.66742000001</v>
+        <v>49573.22304</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>30305.44489</v>
+        <v>39167.5716</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>39005.3781</v>
+        <v>39005.37809999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>100520.57483</v>
@@ -2969,13 +3130,18 @@
         <v>118667.21163</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>263895.58899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>264223.89765</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>388325.309</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>145067.99942</v>
@@ -2984,19 +3150,19 @@
         <v>237884.05879</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>341206.63861</v>
+        <v>341206.6386099999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>262818.48925</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>179327.58759</v>
+        <v>261928.86344</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>172068.63873</v>
+        <v>205995.76259</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>60844.63248000001</v>
+        <v>91995.93264</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>108292.24794</v>
@@ -3005,13 +3171,16 @@
         <v>493543.70971</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>549454.2463999999</v>
+        <v>549444.31926</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1039949.02639</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1041365.36314</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1552452.447</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>44</v>
@@ -3044,13 +3216,13 @@
         <v>77</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>95</v>
@@ -3059,13 +3231,16 @@
         <v>100</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>103</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>